--- a/data/monetary/M_1242.xlsx
+++ b/data/monetary/M_1242.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuj55142\Documents\GitHub\istart\Mock_Scan\Monetary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-effort/data/monetary/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77FEA3A-AA95-F640-B23D-7107D2228029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-effort_run-monetary_sub-12" sheetId="1" r:id="rId1"/>
@@ -19,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="42">
-  <si>
-    <t>C:\Users\tuj55142\Documents\GitHub\istart\Mock_Scan\Monetary\EEfRTTextCuesV2_Win1_v2_815-1242-1.edat2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="41">
   <si>
     <t>ExperimentName</t>
   </si>
@@ -150,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -953,119 +951,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>1242</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>60.01</v>
+      </c>
+      <c r="H2">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
       <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>-562284736</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="1">
+        <v>44358</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>44358.616539351853</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0.44987268518518514</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>3.04</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1251</v>
+      </c>
+      <c r="Y2">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>25</v>
-      </c>
       <c r="Z2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB2" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AB2">
+        <v>0.1833333</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>33</v>
       </c>
       <c r="B3">
         <v>1242</v>
@@ -1077,10 +1170,10 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
         <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
       </c>
       <c r="G3">
         <v>60.01</v>
@@ -1089,7 +1182,7 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1101,13 +1194,13 @@
         <v>-562284736</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P3" s="1">
         <v>44358</v>
@@ -1119,51 +1212,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>1.42</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>938</v>
+      </c>
+      <c r="Y3">
+        <v>50</v>
+      </c>
+      <c r="Z3" t="s">
         <v>39</v>
       </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>3.04</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1251</v>
-      </c>
-      <c r="Y3">
-        <v>12</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>40</v>
-      </c>
       <c r="AA3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB3">
-        <v>0.1833333</v>
+        <v>0.17666670000000001</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD3">
         <v>1</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>1242</v>
@@ -1175,10 +1268,10 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
       </c>
       <c r="G4">
         <v>60.01</v>
@@ -1187,7 +1280,7 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1199,13 +1292,13 @@
         <v>-562284736</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P4" s="1">
         <v>44358</v>
@@ -1217,13 +1310,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.42</v>
+        <v>2.86</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1232,36 +1325,36 @@
         <v>1</v>
       </c>
       <c r="X4">
-        <v>938</v>
+        <v>1469</v>
       </c>
       <c r="Y4">
         <v>50</v>
       </c>
       <c r="Z4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB4">
-        <v>0.17666670000000001</v>
+        <v>0.18553330000000001</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD4">
         <v>1</v>
       </c>
       <c r="AE4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>1242</v>
@@ -1273,10 +1366,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
       </c>
       <c r="G5">
         <v>60.01</v>
@@ -1285,7 +1378,7 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1297,13 +1390,13 @@
         <v>-562284736</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P5" s="1">
         <v>44358</v>
@@ -1315,51 +1408,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U5">
-        <v>2.86</v>
+        <v>3.22</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>1</v>
       </c>
       <c r="X5">
-        <v>1469</v>
+        <v>4617</v>
       </c>
       <c r="Y5">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="Z5" t="s">
         <v>40</v>
       </c>
       <c r="AA5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB5">
-        <v>0.18553330000000001</v>
+        <v>0.20796999999999999</v>
       </c>
       <c r="AC5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD5">
         <v>1</v>
       </c>
       <c r="AE5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>3.22</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>1242</v>
@@ -1371,10 +1464,10 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
       </c>
       <c r="G6">
         <v>60.01</v>
@@ -1383,7 +1476,7 @@
         <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1395,13 +1488,13 @@
         <v>-562284736</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P6" s="1">
         <v>44358</v>
@@ -1413,51 +1506,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <v>1.78</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1104</v>
+      </c>
+      <c r="Y6">
+        <v>12</v>
+      </c>
+      <c r="Z6" t="s">
         <v>39</v>
       </c>
-      <c r="T6">
-        <v>4</v>
-      </c>
-      <c r="U6">
-        <v>3.22</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>4617</v>
-      </c>
-      <c r="Y6">
-        <v>88</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>41</v>
-      </c>
       <c r="AA6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB6">
-        <v>0.20796999999999999</v>
+        <v>0.17280000000000001</v>
       </c>
       <c r="AC6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD6">
         <v>1</v>
       </c>
       <c r="AE6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF6">
-        <v>3.22</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>1242</v>
@@ -1469,10 +1562,10 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
         <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
       </c>
       <c r="G7">
         <v>60.01</v>
@@ -1481,7 +1574,7 @@
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1493,13 +1586,13 @@
         <v>-562284736</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P7" s="1">
         <v>44358</v>
@@ -1511,13 +1604,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U7">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1526,36 +1619,36 @@
         <v>1</v>
       </c>
       <c r="X7">
-        <v>1104</v>
+        <v>961</v>
       </c>
       <c r="Y7">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="Z7" t="s">
         <v>40</v>
       </c>
       <c r="AA7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB7">
-        <v>0.17280000000000001</v>
+        <v>0.1744667</v>
       </c>
       <c r="AC7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD7">
         <v>1</v>
       </c>
       <c r="AE7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>1242</v>
@@ -1567,10 +1660,10 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
       </c>
       <c r="G8">
         <v>60.01</v>
@@ -1579,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1591,13 +1684,13 @@
         <v>-562284736</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P8" s="1">
         <v>44358</v>
@@ -1609,51 +1702,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8">
+        <v>7</v>
+      </c>
+      <c r="U8">
+        <v>2.68</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>934</v>
+      </c>
+      <c r="Y8">
+        <v>50</v>
+      </c>
+      <c r="Z8" t="s">
         <v>39</v>
       </c>
-      <c r="T8">
-        <v>6</v>
-      </c>
-      <c r="U8">
-        <v>1.96</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>961</v>
-      </c>
-      <c r="Y8">
-        <v>88</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>41</v>
-      </c>
       <c r="AA8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB8">
-        <v>0.1744667</v>
+        <v>0.17169999999999999</v>
       </c>
       <c r="AC8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD8">
         <v>1</v>
       </c>
       <c r="AE8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>1242</v>
@@ -1665,10 +1758,10 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
         <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
       </c>
       <c r="G9">
         <v>60.01</v>
@@ -1677,7 +1770,7 @@
         <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1689,13 +1782,13 @@
         <v>-562284736</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P9" s="1">
         <v>44358</v>
@@ -1707,13 +1800,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U9">
-        <v>2.68</v>
+        <v>1.78</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1722,36 +1815,36 @@
         <v>1</v>
       </c>
       <c r="X9">
-        <v>934</v>
+        <v>1175</v>
       </c>
       <c r="Y9">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="Z9" t="s">
         <v>40</v>
       </c>
       <c r="AA9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB9">
-        <v>0.17169999999999999</v>
+        <v>0.1711</v>
       </c>
       <c r="AC9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD9">
         <v>1</v>
       </c>
       <c r="AE9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>1242</v>
@@ -1763,10 +1856,10 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
         <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
       </c>
       <c r="G10">
         <v>60.01</v>
@@ -1775,7 +1868,7 @@
         <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1787,13 +1880,13 @@
         <v>-562284736</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" s="1">
         <v>44358</v>
@@ -1805,13 +1898,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U10">
-        <v>1.78</v>
+        <v>2.14</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1820,36 +1913,36 @@
         <v>1</v>
       </c>
       <c r="X10">
-        <v>1175</v>
+        <v>824</v>
       </c>
       <c r="Y10">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="Z10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB10">
-        <v>0.1711</v>
+        <v>0.18279999999999999</v>
       </c>
       <c r="AC10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD10">
         <v>1</v>
       </c>
       <c r="AE10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>1242</v>
@@ -1861,10 +1954,10 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
         <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
       </c>
       <c r="G11">
         <v>60.01</v>
@@ -1873,7 +1966,7 @@
         <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1885,13 +1978,13 @@
         <v>-562284736</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P11" s="1">
         <v>44358</v>
@@ -1903,13 +1996,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U11">
-        <v>2.14</v>
+        <v>2.5</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1918,36 +2011,36 @@
         <v>1</v>
       </c>
       <c r="X11">
-        <v>824</v>
+        <v>1232</v>
       </c>
       <c r="Y11">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB11">
-        <v>0.18279999999999999</v>
+        <v>0.18723329999999999</v>
       </c>
       <c r="AC11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD11">
         <v>1</v>
       </c>
       <c r="AE11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>1242</v>
@@ -1959,10 +2052,10 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
         <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
       </c>
       <c r="G12">
         <v>60.01</v>
@@ -1971,7 +2064,7 @@
         <v>7</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1983,13 +2076,13 @@
         <v>-562284736</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P12" s="1">
         <v>44358</v>
@@ -2001,51 +2094,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T12">
+        <v>11</v>
+      </c>
+      <c r="U12">
+        <v>3.94</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>842</v>
+      </c>
+      <c r="Y12">
+        <v>50</v>
+      </c>
+      <c r="Z12" t="s">
         <v>39</v>
       </c>
-      <c r="T12">
-        <v>10</v>
-      </c>
-      <c r="U12">
-        <v>2.5</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>1232</v>
-      </c>
-      <c r="Y12">
-        <v>12</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>41</v>
-      </c>
       <c r="AA12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB12">
-        <v>0.18723329999999999</v>
+        <v>0.19333330000000001</v>
       </c>
       <c r="AC12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD12">
         <v>1</v>
       </c>
       <c r="AE12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>1242</v>
@@ -2057,10 +2150,10 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
         <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
       </c>
       <c r="G13">
         <v>60.01</v>
@@ -2069,7 +2162,7 @@
         <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2081,13 +2174,13 @@
         <v>-562284736</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P13" s="1">
         <v>44358</v>
@@ -2099,13 +2192,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U13">
-        <v>3.94</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2114,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="X13">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="Y13">
         <v>50</v>
@@ -2123,27 +2216,27 @@
         <v>40</v>
       </c>
       <c r="AA13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB13">
-        <v>0.19333330000000001</v>
+        <v>0.1972333</v>
       </c>
       <c r="AC13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD13">
         <v>1</v>
       </c>
       <c r="AE13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>1242</v>
@@ -2155,10 +2248,10 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
         <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
       </c>
       <c r="G14">
         <v>60.01</v>
@@ -2167,7 +2260,7 @@
         <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2179,13 +2272,13 @@
         <v>-562284736</v>
       </c>
       <c r="M14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P14" s="1">
         <v>44358</v>
@@ -2197,51 +2290,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T14">
+        <v>13</v>
+      </c>
+      <c r="U14">
+        <v>2.14</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>740</v>
+      </c>
+      <c r="Y14">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="s">
         <v>39</v>
       </c>
-      <c r="T14">
-        <v>12</v>
-      </c>
-      <c r="U14">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>829</v>
-      </c>
-      <c r="Y14">
-        <v>50</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>41</v>
-      </c>
       <c r="AA14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB14">
-        <v>0.1972333</v>
+        <v>0.19</v>
       </c>
       <c r="AC14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD14">
         <v>1</v>
       </c>
       <c r="AE14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>1242</v>
@@ -2253,10 +2346,10 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
         <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
       </c>
       <c r="G15">
         <v>60.01</v>
@@ -2265,7 +2358,7 @@
         <v>7</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2277,13 +2370,13 @@
         <v>-562284736</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P15" s="1">
         <v>44358</v>
@@ -2295,13 +2388,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U15">
-        <v>2.14</v>
+        <v>1.42</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2310,36 +2403,36 @@
         <v>1</v>
       </c>
       <c r="X15">
-        <v>740</v>
+        <v>1511</v>
       </c>
       <c r="Y15">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="Z15" t="s">
         <v>40</v>
       </c>
       <c r="AA15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB15">
-        <v>0.19</v>
+        <v>0.1861333</v>
       </c>
       <c r="AC15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD15">
         <v>1</v>
       </c>
       <c r="AE15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>1242</v>
@@ -2351,10 +2444,10 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
         <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>35</v>
       </c>
       <c r="G16">
         <v>60.01</v>
@@ -2363,7 +2456,7 @@
         <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -2375,13 +2468,13 @@
         <v>-562284736</v>
       </c>
       <c r="M16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P16" s="1">
         <v>44358</v>
@@ -2393,51 +2486,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U16">
-        <v>1.42</v>
+        <v>3.04</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>1511</v>
+        <v>1152</v>
       </c>
       <c r="Y16">
         <v>88</v>
       </c>
       <c r="Z16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AA16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB16">
-        <v>0.1861333</v>
+        <v>0.2210211</v>
       </c>
       <c r="AC16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD16">
         <v>1</v>
       </c>
       <c r="AE16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>1242</v>
@@ -2449,10 +2542,10 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
         <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
       </c>
       <c r="G17">
         <v>60.01</v>
@@ -2461,7 +2554,7 @@
         <v>7</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2473,13 +2566,13 @@
         <v>-562284736</v>
       </c>
       <c r="M17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P17" s="1">
         <v>44358</v>
@@ -2491,51 +2584,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S17" t="s">
+        <v>38</v>
+      </c>
+      <c r="T17">
+        <v>16</v>
+      </c>
+      <c r="U17">
+        <v>1.24</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1051</v>
+      </c>
+      <c r="Y17">
+        <v>12</v>
+      </c>
+      <c r="Z17" t="s">
         <v>39</v>
       </c>
-      <c r="T17">
-        <v>15</v>
-      </c>
-      <c r="U17">
-        <v>3.04</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>1152</v>
-      </c>
-      <c r="Y17">
-        <v>88</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>40</v>
-      </c>
       <c r="AA17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB17">
-        <v>0.2210211</v>
+        <v>0.1739</v>
       </c>
       <c r="AC17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD17">
         <v>1</v>
       </c>
       <c r="AE17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>1242</v>
@@ -2547,10 +2640,10 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
         <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
       </c>
       <c r="G18">
         <v>60.01</v>
@@ -2559,7 +2652,7 @@
         <v>7</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2571,13 +2664,13 @@
         <v>-562284736</v>
       </c>
       <c r="M18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P18" s="1">
         <v>44358</v>
@@ -2589,13 +2682,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U18">
-        <v>1.24</v>
+        <v>3.58</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2604,36 +2697,36 @@
         <v>1</v>
       </c>
       <c r="X18">
-        <v>1051</v>
+        <v>1765</v>
       </c>
       <c r="Y18">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="Z18" t="s">
         <v>40</v>
       </c>
       <c r="AA18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB18">
-        <v>0.1739</v>
+        <v>0.1827667</v>
       </c>
       <c r="AC18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD18">
         <v>1</v>
       </c>
       <c r="AE18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>1242</v>
@@ -2645,10 +2738,10 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
         <v>34</v>
-      </c>
-      <c r="F19" t="s">
-        <v>35</v>
       </c>
       <c r="G19">
         <v>60.01</v>
@@ -2657,7 +2750,7 @@
         <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2669,13 +2762,13 @@
         <v>-562284736</v>
       </c>
       <c r="M19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P19" s="1">
         <v>44358</v>
@@ -2687,51 +2780,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S19" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19">
+        <v>18</v>
+      </c>
+      <c r="U19">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>688</v>
+      </c>
+      <c r="Y19">
+        <v>12</v>
+      </c>
+      <c r="Z19" t="s">
         <v>39</v>
       </c>
-      <c r="T19">
-        <v>17</v>
-      </c>
-      <c r="U19">
-        <v>3.58</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>1765</v>
-      </c>
-      <c r="Y19">
-        <v>88</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>41</v>
-      </c>
       <c r="AA19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB19">
-        <v>0.1827667</v>
+        <v>0.18390000000000001</v>
       </c>
       <c r="AC19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD19">
         <v>1</v>
       </c>
       <c r="AE19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>1242</v>
@@ -2743,10 +2836,10 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
         <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
       </c>
       <c r="G20">
         <v>60.01</v>
@@ -2755,7 +2848,7 @@
         <v>7</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2767,13 +2860,13 @@
         <v>-562284736</v>
       </c>
       <c r="M20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P20" s="1">
         <v>44358</v>
@@ -2785,13 +2878,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U20">
-        <v>2.3199999999999998</v>
+        <v>4.12</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2800,36 +2893,36 @@
         <v>1</v>
       </c>
       <c r="X20">
-        <v>688</v>
+        <v>1461</v>
       </c>
       <c r="Y20">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="Z20" t="s">
         <v>40</v>
       </c>
       <c r="AA20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB20">
-        <v>0.18390000000000001</v>
+        <v>0.19056670000000001</v>
       </c>
       <c r="AC20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD20">
         <v>1</v>
       </c>
       <c r="AE20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>1242</v>
@@ -2841,10 +2934,10 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
         <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>35</v>
       </c>
       <c r="G21">
         <v>60.01</v>
@@ -2853,7 +2946,7 @@
         <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2865,13 +2958,13 @@
         <v>-562284736</v>
       </c>
       <c r="M21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P21" s="1">
         <v>44358</v>
@@ -2883,10 +2976,10 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U21">
         <v>4.12</v>
@@ -2898,36 +2991,36 @@
         <v>1</v>
       </c>
       <c r="X21">
-        <v>1461</v>
+        <v>890</v>
       </c>
       <c r="Y21">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AA21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB21">
         <v>0.19056670000000001</v>
       </c>
       <c r="AC21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD21">
         <v>1</v>
       </c>
       <c r="AE21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>1242</v>
@@ -2939,10 +3032,10 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
         <v>34</v>
-      </c>
-      <c r="F22" t="s">
-        <v>35</v>
       </c>
       <c r="G22">
         <v>60.01</v>
@@ -2951,7 +3044,7 @@
         <v>7</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2963,13 +3056,13 @@
         <v>-562284736</v>
       </c>
       <c r="M22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P22" s="1">
         <v>44358</v>
@@ -2981,13 +3074,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U22">
-        <v>4.12</v>
+        <v>2.5</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2996,36 +3089,36 @@
         <v>1</v>
       </c>
       <c r="X22">
-        <v>890</v>
+        <v>1359</v>
       </c>
       <c r="Y22">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="Z22" t="s">
         <v>40</v>
       </c>
       <c r="AA22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB22">
-        <v>0.19056670000000001</v>
+        <v>0.19943330000000001</v>
       </c>
       <c r="AC22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD22">
         <v>1</v>
       </c>
       <c r="AE22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>1242</v>
@@ -3037,10 +3130,10 @@
         <v>4</v>
       </c>
       <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
         <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
       </c>
       <c r="G23">
         <v>60.01</v>
@@ -3049,7 +3142,7 @@
         <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -3061,13 +3154,13 @@
         <v>-562284736</v>
       </c>
       <c r="M23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P23" s="1">
         <v>44358</v>
@@ -3079,51 +3172,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T23">
+        <v>22</v>
+      </c>
+      <c r="U23">
+        <v>3.94</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1238</v>
+      </c>
+      <c r="Y23">
+        <v>12</v>
+      </c>
+      <c r="Z23" t="s">
         <v>39</v>
       </c>
-      <c r="T23">
-        <v>21</v>
-      </c>
-      <c r="U23">
-        <v>2.5</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>1359</v>
-      </c>
-      <c r="Y23">
-        <v>50</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>41</v>
-      </c>
       <c r="AA23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB23">
-        <v>0.19943330000000001</v>
+        <v>0.19613330000000001</v>
       </c>
       <c r="AC23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD23">
         <v>1</v>
       </c>
       <c r="AE23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>1242</v>
@@ -3135,10 +3228,10 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
         <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>35</v>
       </c>
       <c r="G24">
         <v>60.01</v>
@@ -3147,7 +3240,7 @@
         <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -3159,13 +3252,13 @@
         <v>-562284736</v>
       </c>
       <c r="M24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P24" s="1">
         <v>44358</v>
@@ -3177,13 +3270,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U24">
-        <v>3.94</v>
+        <v>3.22</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -3192,36 +3285,36 @@
         <v>1</v>
       </c>
       <c r="X24">
-        <v>1238</v>
+        <v>1150</v>
       </c>
       <c r="Y24">
         <v>12</v>
       </c>
       <c r="Z24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB24">
-        <v>0.19613330000000001</v>
+        <v>0.19</v>
       </c>
       <c r="AC24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD24">
         <v>1</v>
       </c>
       <c r="AE24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>1242</v>
@@ -3233,10 +3326,10 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
         <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>35</v>
       </c>
       <c r="G25">
         <v>60.01</v>
@@ -3245,7 +3338,7 @@
         <v>7</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -3257,13 +3350,13 @@
         <v>-562284736</v>
       </c>
       <c r="M25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P25" s="1">
         <v>44358</v>
@@ -3275,51 +3368,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U25">
-        <v>3.22</v>
+        <v>4.12</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <v>1</v>
       </c>
       <c r="X25">
-        <v>1150</v>
+        <v>1185</v>
       </c>
       <c r="Y25">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="Z25" t="s">
         <v>40</v>
       </c>
       <c r="AA25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB25">
-        <v>0.19</v>
+        <v>0.20115</v>
       </c>
       <c r="AC25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD25">
         <v>1</v>
       </c>
       <c r="AE25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>4.12</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>1242</v>
@@ -3331,10 +3424,10 @@
         <v>4</v>
       </c>
       <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
         <v>34</v>
-      </c>
-      <c r="F26" t="s">
-        <v>35</v>
       </c>
       <c r="G26">
         <v>60.01</v>
@@ -3343,7 +3436,7 @@
         <v>7</v>
       </c>
       <c r="I26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -3355,13 +3448,13 @@
         <v>-562284736</v>
       </c>
       <c r="M26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P26" s="1">
         <v>44358</v>
@@ -3373,51 +3466,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U26">
-        <v>4.12</v>
+        <v>2.68</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26">
         <v>1</v>
       </c>
       <c r="X26">
-        <v>1185</v>
+        <v>1060</v>
       </c>
       <c r="Y26">
         <v>88</v>
       </c>
       <c r="Z26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB26">
-        <v>0.20115</v>
+        <v>0.1855667</v>
       </c>
       <c r="AC26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD26">
         <v>1</v>
       </c>
       <c r="AE26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF26">
-        <v>4.12</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>1242</v>
@@ -3429,10 +3522,10 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
         <v>34</v>
-      </c>
-      <c r="F27" t="s">
-        <v>35</v>
       </c>
       <c r="G27">
         <v>60.01</v>
@@ -3441,7 +3534,7 @@
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -3453,13 +3546,13 @@
         <v>-562284736</v>
       </c>
       <c r="M27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P27" s="1">
         <v>44358</v>
@@ -3471,51 +3564,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S27" t="s">
+        <v>38</v>
+      </c>
+      <c r="T27">
+        <v>26</v>
+      </c>
+      <c r="U27">
+        <v>3.4</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>976</v>
+      </c>
+      <c r="Y27">
+        <v>50</v>
+      </c>
+      <c r="Z27" t="s">
         <v>39</v>
       </c>
-      <c r="T27">
-        <v>25</v>
-      </c>
-      <c r="U27">
-        <v>2.68</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27">
-        <v>1060</v>
-      </c>
-      <c r="Y27">
-        <v>88</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>41</v>
-      </c>
       <c r="AA27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB27">
-        <v>0.1855667</v>
+        <v>0.1938667</v>
       </c>
       <c r="AC27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD27">
         <v>1</v>
       </c>
       <c r="AE27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>1242</v>
@@ -3527,10 +3620,10 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
         <v>34</v>
-      </c>
-      <c r="F28" t="s">
-        <v>35</v>
       </c>
       <c r="G28">
         <v>60.01</v>
@@ -3539,7 +3632,7 @@
         <v>7</v>
       </c>
       <c r="I28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -3551,13 +3644,13 @@
         <v>-562284736</v>
       </c>
       <c r="M28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P28" s="1">
         <v>44358</v>
@@ -3569,51 +3662,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U28">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>976</v>
+        <v>2517</v>
       </c>
       <c r="Y28">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="Z28" t="s">
         <v>40</v>
       </c>
       <c r="AA28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB28">
-        <v>0.1938667</v>
+        <v>0.2120909</v>
       </c>
       <c r="AC28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD28">
         <v>1</v>
       </c>
       <c r="AE28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>1242</v>
@@ -3625,10 +3718,10 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
         <v>34</v>
-      </c>
-      <c r="F29" t="s">
-        <v>35</v>
       </c>
       <c r="G29">
         <v>60.01</v>
@@ -3637,7 +3730,7 @@
         <v>7</v>
       </c>
       <c r="I29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -3649,13 +3742,13 @@
         <v>-562284736</v>
       </c>
       <c r="M29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P29" s="1">
         <v>44358</v>
@@ -3667,51 +3760,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S29" t="s">
+        <v>38</v>
+      </c>
+      <c r="T29">
+        <v>28</v>
+      </c>
+      <c r="U29">
+        <v>3.76</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1009</v>
+      </c>
+      <c r="Y29">
+        <v>50</v>
+      </c>
+      <c r="Z29" t="s">
         <v>39</v>
       </c>
-      <c r="T29">
-        <v>27</v>
-      </c>
-      <c r="U29">
-        <v>2.5</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>2517</v>
-      </c>
-      <c r="Y29">
-        <v>88</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>41</v>
-      </c>
       <c r="AA29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB29">
-        <v>0.2120909</v>
+        <v>0.185</v>
       </c>
       <c r="AC29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD29">
         <v>1</v>
       </c>
       <c r="AE29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>1242</v>
@@ -3723,10 +3816,10 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
         <v>34</v>
-      </c>
-      <c r="F30" t="s">
-        <v>35</v>
       </c>
       <c r="G30">
         <v>60.01</v>
@@ -3735,7 +3828,7 @@
         <v>7</v>
       </c>
       <c r="I30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -3747,13 +3840,13 @@
         <v>-562284736</v>
       </c>
       <c r="M30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P30" s="1">
         <v>44358</v>
@@ -3765,13 +3858,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U30">
-        <v>3.76</v>
+        <v>1.78</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3780,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="X30">
-        <v>1009</v>
+        <v>4103</v>
       </c>
       <c r="Y30">
         <v>50</v>
@@ -3789,27 +3882,27 @@
         <v>40</v>
       </c>
       <c r="AA30" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB30">
+        <v>0.19553329999999999</v>
+      </c>
+      <c r="AC30">
         <v>29</v>
       </c>
-      <c r="AB30">
-        <v>0.185</v>
-      </c>
-      <c r="AC30">
-        <v>28</v>
-      </c>
       <c r="AD30">
         <v>1</v>
       </c>
       <c r="AE30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>1242</v>
@@ -3821,10 +3914,10 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
         <v>34</v>
-      </c>
-      <c r="F31" t="s">
-        <v>35</v>
       </c>
       <c r="G31">
         <v>60.01</v>
@@ -3833,7 +3926,7 @@
         <v>7</v>
       </c>
       <c r="I31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -3845,13 +3938,13 @@
         <v>-562284736</v>
       </c>
       <c r="M31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P31" s="1">
         <v>44358</v>
@@ -3863,51 +3956,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S31" t="s">
+        <v>38</v>
+      </c>
+      <c r="T31">
+        <v>30</v>
+      </c>
+      <c r="U31">
+        <v>1.42</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1510</v>
+      </c>
+      <c r="Y31">
+        <v>12</v>
+      </c>
+      <c r="Z31" t="s">
         <v>39</v>
       </c>
-      <c r="T31">
-        <v>29</v>
-      </c>
-      <c r="U31">
-        <v>1.78</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>1</v>
-      </c>
-      <c r="X31">
-        <v>4103</v>
-      </c>
-      <c r="Y31">
-        <v>50</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>41</v>
-      </c>
       <c r="AA31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB31">
-        <v>0.19553329999999999</v>
+        <v>0.21</v>
       </c>
       <c r="AC31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD31">
         <v>1</v>
       </c>
       <c r="AE31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>1242</v>
@@ -3919,10 +4012,10 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
         <v>34</v>
-      </c>
-      <c r="F32" t="s">
-        <v>35</v>
       </c>
       <c r="G32">
         <v>60.01</v>
@@ -3931,7 +4024,7 @@
         <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -3943,13 +4036,13 @@
         <v>-562284736</v>
       </c>
       <c r="M32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P32" s="1">
         <v>44358</v>
@@ -3961,51 +4054,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S32" t="s">
+        <v>38</v>
+      </c>
+      <c r="T32">
+        <v>31</v>
+      </c>
+      <c r="U32">
+        <v>3.04</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>842</v>
+      </c>
+      <c r="Y32">
+        <v>50</v>
+      </c>
+      <c r="Z32" t="s">
         <v>39</v>
       </c>
-      <c r="T32">
-        <v>30</v>
-      </c>
-      <c r="U32">
-        <v>1.42</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="X32">
-        <v>1510</v>
-      </c>
-      <c r="Y32">
-        <v>12</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>40</v>
-      </c>
       <c r="AA32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB32">
-        <v>0.21</v>
+        <v>0.20333329999999999</v>
       </c>
       <c r="AC32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AD32">
         <v>1</v>
       </c>
       <c r="AE32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>1242</v>
@@ -4017,10 +4110,10 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
         <v>34</v>
-      </c>
-      <c r="F33" t="s">
-        <v>35</v>
       </c>
       <c r="G33">
         <v>60.01</v>
@@ -4029,7 +4122,7 @@
         <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -4041,13 +4134,13 @@
         <v>-562284736</v>
       </c>
       <c r="M33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P33" s="1">
         <v>44358</v>
@@ -4059,51 +4152,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U33">
-        <v>3.04</v>
+        <v>3.4</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33">
         <v>1</v>
       </c>
       <c r="X33">
-        <v>842</v>
+        <v>1257</v>
       </c>
       <c r="Y33">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="Z33" t="s">
         <v>40</v>
       </c>
       <c r="AA33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB33">
-        <v>0.20333329999999999</v>
+        <v>0.20846999999999999</v>
       </c>
       <c r="AC33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD33">
         <v>1</v>
       </c>
       <c r="AE33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>1242</v>
@@ -4115,10 +4208,10 @@
         <v>4</v>
       </c>
       <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
         <v>34</v>
-      </c>
-      <c r="F34" t="s">
-        <v>35</v>
       </c>
       <c r="G34">
         <v>60.01</v>
@@ -4127,7 +4220,7 @@
         <v>7</v>
       </c>
       <c r="I34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -4139,13 +4232,13 @@
         <v>-562284736</v>
       </c>
       <c r="M34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P34" s="1">
         <v>44358</v>
@@ -4157,51 +4250,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S34" t="s">
+        <v>38</v>
+      </c>
+      <c r="T34">
+        <v>33</v>
+      </c>
+      <c r="U34">
+        <v>3.22</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>1180</v>
+      </c>
+      <c r="Y34">
+        <v>50</v>
+      </c>
+      <c r="Z34" t="s">
         <v>39</v>
       </c>
-      <c r="T34">
+      <c r="AA34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB34">
+        <v>0.1961</v>
+      </c>
+      <c r="AC34">
+        <v>33</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>33</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>32</v>
-      </c>
-      <c r="U34">
-        <v>3.4</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>1</v>
-      </c>
-      <c r="X34">
-        <v>1257</v>
-      </c>
-      <c r="Y34">
-        <v>88</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB34">
-        <v>0.20846999999999999</v>
-      </c>
-      <c r="AC34">
-        <v>32</v>
-      </c>
-      <c r="AD34">
-        <v>1</v>
-      </c>
-      <c r="AE34">
-        <v>32</v>
-      </c>
-      <c r="AF34">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>33</v>
       </c>
       <c r="B35">
         <v>1242</v>
@@ -4213,10 +4306,10 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" t="s">
         <v>34</v>
-      </c>
-      <c r="F35" t="s">
-        <v>35</v>
       </c>
       <c r="G35">
         <v>60.01</v>
@@ -4225,7 +4318,7 @@
         <v>7</v>
       </c>
       <c r="I35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -4237,13 +4330,13 @@
         <v>-562284736</v>
       </c>
       <c r="M35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P35" s="1">
         <v>44358</v>
@@ -4255,13 +4348,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U35">
-        <v>3.22</v>
+        <v>1.24</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -4270,36 +4363,36 @@
         <v>1</v>
       </c>
       <c r="X35">
-        <v>1180</v>
+        <v>998</v>
       </c>
       <c r="Y35">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="Z35" t="s">
         <v>40</v>
       </c>
       <c r="AA35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB35">
-        <v>0.1961</v>
+        <v>0.18779999999999999</v>
       </c>
       <c r="AC35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AD35">
         <v>1</v>
       </c>
       <c r="AE35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36">
         <v>1242</v>
@@ -4311,10 +4404,10 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
         <v>34</v>
-      </c>
-      <c r="F36" t="s">
-        <v>35</v>
       </c>
       <c r="G36">
         <v>60.01</v>
@@ -4323,7 +4416,7 @@
         <v>7</v>
       </c>
       <c r="I36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -4335,13 +4428,13 @@
         <v>-562284736</v>
       </c>
       <c r="M36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P36" s="1">
         <v>44358</v>
@@ -4353,51 +4446,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S36" t="s">
+        <v>38</v>
+      </c>
+      <c r="T36">
+        <v>35</v>
+      </c>
+      <c r="U36">
+        <v>3.58</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>1209</v>
+      </c>
+      <c r="Y36">
+        <v>12</v>
+      </c>
+      <c r="Z36" t="s">
         <v>39</v>
       </c>
-      <c r="T36">
-        <v>34</v>
-      </c>
-      <c r="U36">
-        <v>1.24</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>1</v>
-      </c>
-      <c r="X36">
-        <v>998</v>
-      </c>
-      <c r="Y36">
-        <v>88</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>41</v>
-      </c>
       <c r="AA36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB36">
-        <v>0.18779999999999999</v>
+        <v>0.19333330000000001</v>
       </c>
       <c r="AC36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD36">
         <v>1</v>
       </c>
       <c r="AE36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37">
         <v>1242</v>
@@ -4409,10 +4502,10 @@
         <v>4</v>
       </c>
       <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" t="s">
         <v>34</v>
-      </c>
-      <c r="F37" t="s">
-        <v>35</v>
       </c>
       <c r="G37">
         <v>60.01</v>
@@ -4421,7 +4514,7 @@
         <v>7</v>
       </c>
       <c r="I37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -4433,13 +4526,13 @@
         <v>-562284736</v>
       </c>
       <c r="M37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P37" s="1">
         <v>44358</v>
@@ -4451,13 +4544,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U37">
-        <v>3.58</v>
+        <v>3.76</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -4466,36 +4559,36 @@
         <v>1</v>
       </c>
       <c r="X37">
-        <v>1209</v>
+        <v>1494</v>
       </c>
       <c r="Y37">
         <v>12</v>
       </c>
       <c r="Z37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB37">
-        <v>0.19333330000000001</v>
+        <v>0.19556670000000001</v>
       </c>
       <c r="AC37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AD37">
         <v>1</v>
       </c>
       <c r="AE37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AF37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38">
         <v>1242</v>
@@ -4507,10 +4600,10 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" t="s">
         <v>34</v>
-      </c>
-      <c r="F38" t="s">
-        <v>35</v>
       </c>
       <c r="G38">
         <v>60.01</v>
@@ -4519,7 +4612,7 @@
         <v>7</v>
       </c>
       <c r="I38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -4531,13 +4624,13 @@
         <v>-562284736</v>
       </c>
       <c r="M38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P38" s="1">
         <v>44358</v>
@@ -4549,51 +4642,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U38">
         <v>3.76</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38">
         <v>1</v>
       </c>
       <c r="X38">
-        <v>1494</v>
+        <v>1340</v>
       </c>
       <c r="Y38">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="Z38" t="s">
         <v>40</v>
       </c>
       <c r="AA38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB38">
-        <v>0.19556670000000001</v>
+        <v>0.21015</v>
       </c>
       <c r="AC38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD38">
         <v>1</v>
       </c>
       <c r="AE38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>3.76</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39">
         <v>1242</v>
@@ -4605,10 +4698,10 @@
         <v>4</v>
       </c>
       <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
         <v>34</v>
-      </c>
-      <c r="F39" t="s">
-        <v>35</v>
       </c>
       <c r="G39">
         <v>60.01</v>
@@ -4617,7 +4710,7 @@
         <v>7</v>
       </c>
       <c r="I39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -4629,13 +4722,13 @@
         <v>-562284736</v>
       </c>
       <c r="M39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P39" s="1">
         <v>44358</v>
@@ -4647,51 +4740,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U39">
-        <v>3.76</v>
+        <v>2.14</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39">
         <v>1</v>
       </c>
       <c r="X39">
-        <v>1340</v>
+        <v>1069</v>
       </c>
       <c r="Y39">
         <v>88</v>
       </c>
       <c r="Z39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB39">
-        <v>0.21015</v>
+        <v>0.1861333</v>
       </c>
       <c r="AC39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD39">
         <v>1</v>
       </c>
       <c r="AE39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AF39">
-        <v>3.76</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40">
         <v>1242</v>
@@ -4703,10 +4796,10 @@
         <v>4</v>
       </c>
       <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" t="s">
         <v>34</v>
-      </c>
-      <c r="F40" t="s">
-        <v>35</v>
       </c>
       <c r="G40">
         <v>60.01</v>
@@ -4715,7 +4808,7 @@
         <v>7</v>
       </c>
       <c r="I40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -4727,13 +4820,13 @@
         <v>-562284736</v>
       </c>
       <c r="M40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P40" s="1">
         <v>44358</v>
@@ -4745,13 +4838,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S40" t="s">
+        <v>38</v>
+      </c>
+      <c r="T40">
         <v>39</v>
       </c>
-      <c r="T40">
-        <v>38</v>
-      </c>
       <c r="U40">
-        <v>2.14</v>
+        <v>3.58</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4760,36 +4853,36 @@
         <v>1</v>
       </c>
       <c r="X40">
-        <v>1069</v>
+        <v>872</v>
       </c>
       <c r="Y40">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="Z40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB40">
-        <v>0.1861333</v>
+        <v>0.1883667</v>
       </c>
       <c r="AC40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD40">
         <v>1</v>
       </c>
       <c r="AE40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41">
         <v>1242</v>
@@ -4801,10 +4894,10 @@
         <v>4</v>
       </c>
       <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" t="s">
         <v>34</v>
-      </c>
-      <c r="F41" t="s">
-        <v>35</v>
       </c>
       <c r="G41">
         <v>60.01</v>
@@ -4813,7 +4906,7 @@
         <v>7</v>
       </c>
       <c r="I41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -4825,13 +4918,13 @@
         <v>-562284736</v>
       </c>
       <c r="M41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P41" s="1">
         <v>44358</v>
@@ -4843,51 +4936,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S41" t="s">
+        <v>38</v>
+      </c>
+      <c r="T41">
+        <v>40</v>
+      </c>
+      <c r="U41">
+        <v>1.6</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>1280</v>
+      </c>
+      <c r="Y41">
+        <v>88</v>
+      </c>
+      <c r="Z41" t="s">
         <v>39</v>
       </c>
-      <c r="T41">
-        <v>39</v>
-      </c>
-      <c r="U41">
-        <v>3.58</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>1</v>
-      </c>
-      <c r="X41">
-        <v>872</v>
-      </c>
-      <c r="Y41">
-        <v>50</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>41</v>
-      </c>
       <c r="AA41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB41">
-        <v>0.1883667</v>
+        <v>0.2016667</v>
       </c>
       <c r="AC41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD41">
         <v>1</v>
       </c>
       <c r="AE41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42">
         <v>1242</v>
@@ -4899,10 +4992,10 @@
         <v>4</v>
       </c>
       <c r="E42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" t="s">
         <v>34</v>
-      </c>
-      <c r="F42" t="s">
-        <v>35</v>
       </c>
       <c r="G42">
         <v>60.01</v>
@@ -4911,7 +5004,7 @@
         <v>7</v>
       </c>
       <c r="I42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -4923,13 +5016,13 @@
         <v>-562284736</v>
       </c>
       <c r="M42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P42" s="1">
         <v>44358</v>
@@ -4941,51 +5034,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S42" t="s">
+        <v>38</v>
+      </c>
+      <c r="T42">
+        <v>41</v>
+      </c>
+      <c r="U42">
+        <v>2.86</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>1168</v>
+      </c>
+      <c r="Y42">
+        <v>12</v>
+      </c>
+      <c r="Z42" t="s">
         <v>39</v>
       </c>
-      <c r="T42">
-        <v>40</v>
-      </c>
-      <c r="U42">
-        <v>1.6</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>1</v>
-      </c>
-      <c r="X42">
-        <v>1280</v>
-      </c>
-      <c r="Y42">
-        <v>88</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>40</v>
-      </c>
       <c r="AA42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB42">
-        <v>0.2016667</v>
+        <v>0.215</v>
       </c>
       <c r="AC42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AD42">
         <v>1</v>
       </c>
       <c r="AE42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43">
         <v>1242</v>
@@ -4997,10 +5090,10 @@
         <v>4</v>
       </c>
       <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s">
         <v>34</v>
-      </c>
-      <c r="F43" t="s">
-        <v>35</v>
       </c>
       <c r="G43">
         <v>60.01</v>
@@ -5009,7 +5102,7 @@
         <v>7</v>
       </c>
       <c r="I43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -5021,13 +5114,13 @@
         <v>-562284736</v>
       </c>
       <c r="M43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P43" s="1">
         <v>44358</v>
@@ -5039,13 +5132,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U43">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -5054,36 +5147,36 @@
         <v>1</v>
       </c>
       <c r="X43">
-        <v>1168</v>
+        <v>788</v>
       </c>
       <c r="Y43">
         <v>12</v>
       </c>
       <c r="Z43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB43">
-        <v>0.215</v>
+        <v>0.1928</v>
       </c>
       <c r="AC43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD43">
         <v>1</v>
       </c>
       <c r="AE43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44">
         <v>1242</v>
@@ -5095,10 +5188,10 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" t="s">
         <v>34</v>
-      </c>
-      <c r="F44" t="s">
-        <v>35</v>
       </c>
       <c r="G44">
         <v>60.01</v>
@@ -5107,7 +5200,7 @@
         <v>7</v>
       </c>
       <c r="I44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -5119,13 +5212,13 @@
         <v>-562284736</v>
       </c>
       <c r="M44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P44" s="1">
         <v>44358</v>
@@ -5137,13 +5230,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U44">
-        <v>2.68</v>
+        <v>1.24</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -5152,36 +5245,36 @@
         <v>1</v>
       </c>
       <c r="X44">
-        <v>788</v>
+        <v>1122</v>
       </c>
       <c r="Y44">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="Z44" t="s">
         <v>40</v>
       </c>
       <c r="AA44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB44">
-        <v>0.1928</v>
+        <v>0.19613330000000001</v>
       </c>
       <c r="AC44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD44">
         <v>1</v>
       </c>
       <c r="AE44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45">
         <v>1242</v>
@@ -5193,10 +5286,10 @@
         <v>4</v>
       </c>
       <c r="E45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" t="s">
         <v>34</v>
-      </c>
-      <c r="F45" t="s">
-        <v>35</v>
       </c>
       <c r="G45">
         <v>60.01</v>
@@ -5205,7 +5298,7 @@
         <v>7</v>
       </c>
       <c r="I45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -5217,13 +5310,13 @@
         <v>-562284736</v>
       </c>
       <c r="M45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P45" s="1">
         <v>44358</v>
@@ -5235,13 +5328,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U45">
-        <v>1.24</v>
+        <v>1.96</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -5250,36 +5343,36 @@
         <v>1</v>
       </c>
       <c r="X45">
-        <v>1122</v>
+        <v>855</v>
       </c>
       <c r="Y45">
         <v>50</v>
       </c>
       <c r="Z45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AA45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB45">
-        <v>0.19613330000000001</v>
+        <v>0.18609999999999999</v>
       </c>
       <c r="AC45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD45">
         <v>1</v>
       </c>
       <c r="AE45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46">
         <v>1242</v>
@@ -5291,10 +5384,10 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" t="s">
         <v>34</v>
-      </c>
-      <c r="F46" t="s">
-        <v>35</v>
       </c>
       <c r="G46">
         <v>60.01</v>
@@ -5303,7 +5396,7 @@
         <v>7</v>
       </c>
       <c r="I46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -5315,13 +5408,13 @@
         <v>-562284736</v>
       </c>
       <c r="M46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P46" s="1">
         <v>44358</v>
@@ -5333,13 +5426,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U46">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -5348,36 +5441,36 @@
         <v>1</v>
       </c>
       <c r="X46">
-        <v>855</v>
+        <v>723</v>
       </c>
       <c r="Y46">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="Z46" t="s">
         <v>40</v>
       </c>
       <c r="AA46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB46">
-        <v>0.18609999999999999</v>
+        <v>0.20276669999999999</v>
       </c>
       <c r="AC46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD46">
         <v>1</v>
       </c>
       <c r="AE46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47">
         <v>1242</v>
@@ -5389,10 +5482,10 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s">
         <v>34</v>
-      </c>
-      <c r="F47" t="s">
-        <v>35</v>
       </c>
       <c r="G47">
         <v>60.01</v>
@@ -5401,7 +5494,7 @@
         <v>7</v>
       </c>
       <c r="I47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -5413,13 +5506,13 @@
         <v>-562284736</v>
       </c>
       <c r="M47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P47" s="1">
         <v>44358</v>
@@ -5431,13 +5524,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U47">
-        <v>1.6</v>
+        <v>2.86</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -5446,36 +5539,36 @@
         <v>1</v>
       </c>
       <c r="X47">
-        <v>723</v>
+        <v>1408</v>
       </c>
       <c r="Y47">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="Z47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB47">
-        <v>0.20276669999999999</v>
+        <v>0.19056670000000001</v>
       </c>
       <c r="AC47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD47">
         <v>1</v>
       </c>
       <c r="AE47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48">
         <v>1242</v>
@@ -5487,10 +5580,10 @@
         <v>4</v>
       </c>
       <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s">
         <v>34</v>
-      </c>
-      <c r="F48" t="s">
-        <v>35</v>
       </c>
       <c r="G48">
         <v>60.01</v>
@@ -5499,7 +5592,7 @@
         <v>7</v>
       </c>
       <c r="I48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -5511,13 +5604,13 @@
         <v>-562284736</v>
       </c>
       <c r="M48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P48" s="1">
         <v>44358</v>
@@ -5529,13 +5622,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U48">
-        <v>2.86</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -5544,36 +5637,36 @@
         <v>1</v>
       </c>
       <c r="X48">
-        <v>1408</v>
+        <v>1279</v>
       </c>
       <c r="Y48">
         <v>88</v>
       </c>
       <c r="Z48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB48">
-        <v>0.19056670000000001</v>
+        <v>0.2016667</v>
       </c>
       <c r="AC48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AD48">
         <v>1</v>
       </c>
       <c r="AE48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49">
         <v>1242</v>
@@ -5585,10 +5678,10 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" t="s">
         <v>34</v>
-      </c>
-      <c r="F49" t="s">
-        <v>35</v>
       </c>
       <c r="G49">
         <v>60.01</v>
@@ -5597,7 +5690,7 @@
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -5609,13 +5702,13 @@
         <v>-562284736</v>
       </c>
       <c r="M49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P49" s="1">
         <v>44358</v>
@@ -5627,51 +5720,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S49" t="s">
+        <v>38</v>
+      </c>
+      <c r="T49">
+        <v>48</v>
+      </c>
+      <c r="U49">
+        <v>3.4</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>1087</v>
+      </c>
+      <c r="Y49">
+        <v>12</v>
+      </c>
+      <c r="Z49" t="s">
         <v>39</v>
       </c>
-      <c r="T49">
-        <v>47</v>
-      </c>
-      <c r="U49">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>1</v>
-      </c>
-      <c r="X49">
-        <v>1279</v>
-      </c>
-      <c r="Y49">
-        <v>88</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>41</v>
-      </c>
       <c r="AA49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB49">
-        <v>0.2016667</v>
+        <v>0.20276669999999999</v>
       </c>
       <c r="AC49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD49">
         <v>1</v>
       </c>
       <c r="AE49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AF49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50">
         <v>1242</v>
@@ -5683,10 +5776,10 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" t="s">
         <v>34</v>
-      </c>
-      <c r="F50" t="s">
-        <v>35</v>
       </c>
       <c r="G50">
         <v>60.01</v>
@@ -5695,7 +5788,7 @@
         <v>7</v>
       </c>
       <c r="I50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -5707,13 +5800,13 @@
         <v>-562284736</v>
       </c>
       <c r="M50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P50" s="1">
         <v>44358</v>
@@ -5725,51 +5818,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U50">
-        <v>3.4</v>
+        <v>3.94</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50">
         <v>1</v>
       </c>
       <c r="X50">
-        <v>1087</v>
+        <v>1133</v>
       </c>
       <c r="Y50">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="Z50" t="s">
         <v>40</v>
       </c>
       <c r="AA50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB50">
-        <v>0.20276669999999999</v>
+        <v>0.20548</v>
       </c>
       <c r="AC50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD50">
         <v>1</v>
       </c>
       <c r="AE50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>3.94</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51">
         <v>1242</v>
@@ -5781,10 +5874,10 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" t="s">
         <v>34</v>
-      </c>
-      <c r="F51" t="s">
-        <v>35</v>
       </c>
       <c r="G51">
         <v>60.01</v>
@@ -5793,7 +5886,7 @@
         <v>7</v>
       </c>
       <c r="I51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -5805,13 +5898,13 @@
         <v>-562284736</v>
       </c>
       <c r="M51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P51" s="1">
         <v>44358</v>
@@ -5823,51 +5916,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S51" t="s">
+        <v>38</v>
+      </c>
+      <c r="T51">
+        <v>50</v>
+      </c>
+      <c r="U51">
+        <v>1.96</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>729</v>
+      </c>
+      <c r="Y51">
+        <v>12</v>
+      </c>
+      <c r="Z51" t="s">
         <v>39</v>
       </c>
-      <c r="T51">
-        <v>49</v>
-      </c>
-      <c r="U51">
-        <v>3.94</v>
-      </c>
-      <c r="V51">
-        <v>1</v>
-      </c>
-      <c r="W51">
-        <v>1</v>
-      </c>
-      <c r="X51">
-        <v>1133</v>
-      </c>
-      <c r="Y51">
-        <v>88</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>41</v>
-      </c>
       <c r="AA51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB51">
-        <v>0.20548</v>
+        <v>0.19003329999999999</v>
       </c>
       <c r="AC51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AD51">
         <v>1</v>
       </c>
       <c r="AE51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF51">
-        <v>3.94</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52">
         <v>1242</v>
@@ -5879,10 +5972,10 @@
         <v>4</v>
       </c>
       <c r="E52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" t="s">
         <v>34</v>
-      </c>
-      <c r="F52" t="s">
-        <v>35</v>
       </c>
       <c r="G52">
         <v>60.01</v>
@@ -5891,7 +5984,7 @@
         <v>7</v>
       </c>
       <c r="I52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -5903,13 +5996,13 @@
         <v>-562284736</v>
       </c>
       <c r="M52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P52" s="1">
         <v>44358</v>
@@ -5921,51 +6014,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T52">
+        <v>51</v>
+      </c>
+      <c r="U52">
+        <v>1.6</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>957</v>
+      </c>
+      <c r="Y52">
         <v>50</v>
-      </c>
-      <c r="U52">
-        <v>1.96</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>1</v>
-      </c>
-      <c r="X52">
-        <v>729</v>
-      </c>
-      <c r="Y52">
-        <v>12</v>
       </c>
       <c r="Z52" t="s">
         <v>40</v>
       </c>
       <c r="AA52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB52">
-        <v>0.19003329999999999</v>
+        <v>0.18946669999999999</v>
       </c>
       <c r="AC52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD52">
         <v>1</v>
       </c>
       <c r="AE52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53">
         <v>1242</v>
@@ -5977,10 +6070,10 @@
         <v>4</v>
       </c>
       <c r="E53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" t="s">
         <v>34</v>
-      </c>
-      <c r="F53" t="s">
-        <v>35</v>
       </c>
       <c r="G53">
         <v>60.01</v>
@@ -5989,7 +6082,7 @@
         <v>7</v>
       </c>
       <c r="I53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -6001,13 +6094,13 @@
         <v>-562284736</v>
       </c>
       <c r="M53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P53" s="1">
         <v>44358</v>
@@ -6019,51 +6112,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S53" t="s">
+        <v>38</v>
+      </c>
+      <c r="T53">
+        <v>52</v>
+      </c>
+      <c r="U53">
+        <v>2.59</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <v>952</v>
+      </c>
+      <c r="Y53">
+        <v>12</v>
+      </c>
+      <c r="Z53" t="s">
         <v>39</v>
       </c>
-      <c r="T53">
-        <v>51</v>
-      </c>
-      <c r="U53">
-        <v>1.6</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>1</v>
-      </c>
-      <c r="X53">
-        <v>957</v>
-      </c>
-      <c r="Y53">
-        <v>50</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>41</v>
-      </c>
       <c r="AA53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB53">
-        <v>0.18946669999999999</v>
+        <v>0.18609999999999999</v>
       </c>
       <c r="AC53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD53">
         <v>1</v>
       </c>
       <c r="AE53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54">
         <v>1242</v>
@@ -6075,10 +6168,10 @@
         <v>4</v>
       </c>
       <c r="E54" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" t="s">
         <v>34</v>
-      </c>
-      <c r="F54" t="s">
-        <v>35</v>
       </c>
       <c r="G54">
         <v>60.01</v>
@@ -6087,7 +6180,7 @@
         <v>7</v>
       </c>
       <c r="I54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -6099,13 +6192,13 @@
         <v>-562284736</v>
       </c>
       <c r="M54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P54" s="1">
         <v>44358</v>
@@ -6117,51 +6210,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S54" t="s">
+        <v>38</v>
+      </c>
+      <c r="T54">
+        <v>53</v>
+      </c>
+      <c r="U54">
+        <v>3.49</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>1440</v>
+      </c>
+      <c r="Y54">
+        <v>88</v>
+      </c>
+      <c r="Z54" t="s">
         <v>39</v>
       </c>
-      <c r="T54">
-        <v>52</v>
-      </c>
-      <c r="U54">
-        <v>2.59</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>1</v>
-      </c>
-      <c r="X54">
-        <v>952</v>
-      </c>
-      <c r="Y54">
-        <v>12</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>40</v>
-      </c>
       <c r="AA54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB54">
-        <v>0.18609999999999999</v>
+        <v>0.2120909</v>
       </c>
       <c r="AC54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD54">
         <v>1</v>
       </c>
       <c r="AE54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55">
         <v>1242</v>
@@ -6173,10 +6266,10 @@
         <v>4</v>
       </c>
       <c r="E55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" t="s">
         <v>34</v>
-      </c>
-      <c r="F55" t="s">
-        <v>35</v>
       </c>
       <c r="G55">
         <v>60.01</v>
@@ -6185,7 +6278,7 @@
         <v>7</v>
       </c>
       <c r="I55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -6197,13 +6290,13 @@
         <v>-562284736</v>
       </c>
       <c r="M55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P55" s="1">
         <v>44358</v>
@@ -6215,51 +6308,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S55" t="s">
+        <v>38</v>
+      </c>
+      <c r="T55">
+        <v>54</v>
+      </c>
+      <c r="U55">
+        <v>3.85</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>607</v>
+      </c>
+      <c r="Y55">
+        <v>50</v>
+      </c>
+      <c r="Z55" t="s">
         <v>39</v>
       </c>
-      <c r="T55">
-        <v>53</v>
-      </c>
-      <c r="U55">
-        <v>3.49</v>
-      </c>
-      <c r="V55">
-        <v>1</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>1440</v>
-      </c>
-      <c r="Y55">
-        <v>88</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>40</v>
-      </c>
       <c r="AA55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB55">
-        <v>0.2120909</v>
+        <v>0.18166669999999999</v>
       </c>
       <c r="AC55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD55">
         <v>1</v>
       </c>
       <c r="AE55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56">
         <v>1242</v>
@@ -6271,10 +6364,10 @@
         <v>4</v>
       </c>
       <c r="E56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" t="s">
         <v>34</v>
-      </c>
-      <c r="F56" t="s">
-        <v>35</v>
       </c>
       <c r="G56">
         <v>60.01</v>
@@ -6283,7 +6376,7 @@
         <v>7</v>
       </c>
       <c r="I56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -6295,13 +6388,13 @@
         <v>-562284736</v>
       </c>
       <c r="M56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P56" s="1">
         <v>44358</v>
@@ -6313,51 +6406,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U56">
-        <v>3.85</v>
+        <v>4.21</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X56">
-        <v>607</v>
+        <v>1322</v>
       </c>
       <c r="Y56">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="Z56" t="s">
         <v>40</v>
       </c>
       <c r="AA56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB56">
-        <v>0.18166669999999999</v>
+        <v>0.21426529999999999</v>
       </c>
       <c r="AC56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD56">
         <v>1</v>
       </c>
       <c r="AE56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57">
         <v>1242</v>
@@ -6369,10 +6462,10 @@
         <v>4</v>
       </c>
       <c r="E57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" t="s">
         <v>34</v>
-      </c>
-      <c r="F57" t="s">
-        <v>35</v>
       </c>
       <c r="G57">
         <v>60.01</v>
@@ -6381,7 +6474,7 @@
         <v>7</v>
       </c>
       <c r="I57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -6393,13 +6486,13 @@
         <v>-562284736</v>
       </c>
       <c r="M57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P57" s="1">
         <v>44358</v>
@@ -6411,51 +6504,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S57" t="s">
+        <v>38</v>
+      </c>
+      <c r="T57">
+        <v>56</v>
+      </c>
+      <c r="U57">
+        <v>4.03</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>702</v>
+      </c>
+      <c r="Y57">
+        <v>12</v>
+      </c>
+      <c r="Z57" t="s">
         <v>39</v>
       </c>
-      <c r="T57">
-        <v>55</v>
-      </c>
-      <c r="U57">
-        <v>4.21</v>
-      </c>
-      <c r="V57">
-        <v>1</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>1322</v>
-      </c>
-      <c r="Y57">
-        <v>88</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>41</v>
-      </c>
       <c r="AA57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB57">
-        <v>0.21426529999999999</v>
+        <v>0.1805667</v>
       </c>
       <c r="AC57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD57">
         <v>1</v>
       </c>
       <c r="AE57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58">
         <v>1242</v>
@@ -6467,10 +6560,10 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" t="s">
         <v>34</v>
-      </c>
-      <c r="F58" t="s">
-        <v>35</v>
       </c>
       <c r="G58">
         <v>60.01</v>
@@ -6479,7 +6572,7 @@
         <v>7</v>
       </c>
       <c r="I58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -6491,13 +6584,13 @@
         <v>-562284736</v>
       </c>
       <c r="M58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P58" s="1">
         <v>44358</v>
@@ -6509,13 +6602,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U58">
-        <v>4.03</v>
+        <v>3.67</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -6524,36 +6617,36 @@
         <v>1</v>
       </c>
       <c r="X58">
-        <v>702</v>
+        <v>638</v>
       </c>
       <c r="Y58">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="Z58" t="s">
         <v>40</v>
       </c>
       <c r="AA58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB58">
-        <v>0.1805667</v>
+        <v>0.1894333</v>
       </c>
       <c r="AC58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD58">
         <v>1</v>
       </c>
       <c r="AE58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59">
         <v>1242</v>
@@ -6565,10 +6658,10 @@
         <v>4</v>
       </c>
       <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
         <v>34</v>
-      </c>
-      <c r="F59" t="s">
-        <v>35</v>
       </c>
       <c r="G59">
         <v>60.01</v>
@@ -6577,7 +6670,7 @@
         <v>7</v>
       </c>
       <c r="I59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -6589,13 +6682,13 @@
         <v>-562284736</v>
       </c>
       <c r="M59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P59" s="1">
         <v>44358</v>
@@ -6607,10 +6700,10 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U59">
         <v>3.67</v>
@@ -6622,36 +6715,36 @@
         <v>1</v>
       </c>
       <c r="X59">
-        <v>638</v>
+        <v>3302</v>
       </c>
       <c r="Y59">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="Z59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AA59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB59">
-        <v>0.1894333</v>
+        <v>0.2133333</v>
       </c>
       <c r="AC59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD59">
         <v>1</v>
       </c>
       <c r="AE59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B60">
         <v>1242</v>
@@ -6663,10 +6756,10 @@
         <v>4</v>
       </c>
       <c r="E60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" t="s">
         <v>34</v>
-      </c>
-      <c r="F60" t="s">
-        <v>35</v>
       </c>
       <c r="G60">
         <v>60.01</v>
@@ -6675,7 +6768,7 @@
         <v>7</v>
       </c>
       <c r="I60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -6687,13 +6780,13 @@
         <v>-562284736</v>
       </c>
       <c r="M60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P60" s="1">
         <v>44358</v>
@@ -6705,51 +6798,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U60">
-        <v>3.67</v>
+        <v>4.03</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60">
-        <v>3302</v>
+        <v>5199</v>
       </c>
       <c r="Y60">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="Z60" t="s">
         <v>40</v>
       </c>
       <c r="AA60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB60">
-        <v>0.2133333</v>
+        <v>0.27270129999999998</v>
       </c>
       <c r="AC60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD60">
         <v>1</v>
       </c>
       <c r="AE60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B61">
         <v>1242</v>
@@ -6761,10 +6854,10 @@
         <v>4</v>
       </c>
       <c r="E61" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" t="s">
         <v>34</v>
-      </c>
-      <c r="F61" t="s">
-        <v>35</v>
       </c>
       <c r="G61">
         <v>60.01</v>
@@ -6773,7 +6866,7 @@
         <v>7</v>
       </c>
       <c r="I61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -6785,13 +6878,13 @@
         <v>-562284736</v>
       </c>
       <c r="M61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P61" s="1">
         <v>44358</v>
@@ -6803,51 +6896,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S61" t="s">
+        <v>38</v>
+      </c>
+      <c r="T61">
+        <v>60</v>
+      </c>
+      <c r="U61">
+        <v>2.77</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>855</v>
+      </c>
+      <c r="Y61">
+        <v>50</v>
+      </c>
+      <c r="Z61" t="s">
         <v>39</v>
       </c>
-      <c r="T61">
-        <v>59</v>
-      </c>
-      <c r="U61">
-        <v>4.03</v>
-      </c>
-      <c r="V61">
-        <v>2</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>5199</v>
-      </c>
-      <c r="Y61">
-        <v>88</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>41</v>
-      </c>
       <c r="AA61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB61">
-        <v>0.27270129999999998</v>
+        <v>0.19056670000000001</v>
       </c>
       <c r="AC61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AD61">
         <v>1</v>
       </c>
       <c r="AE61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B62">
         <v>1242</v>
@@ -6859,10 +6952,10 @@
         <v>4</v>
       </c>
       <c r="E62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" t="s">
         <v>34</v>
-      </c>
-      <c r="F62" t="s">
-        <v>35</v>
       </c>
       <c r="G62">
         <v>60.01</v>
@@ -6871,7 +6964,7 @@
         <v>7</v>
       </c>
       <c r="I62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -6883,13 +6976,13 @@
         <v>-562284736</v>
       </c>
       <c r="M62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P62" s="1">
         <v>44358</v>
@@ -6901,13 +6994,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U62">
-        <v>2.77</v>
+        <v>1.51</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -6916,36 +7009,36 @@
         <v>1</v>
       </c>
       <c r="X62">
-        <v>855</v>
+        <v>925</v>
       </c>
       <c r="Y62">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="Z62" t="s">
         <v>40</v>
       </c>
       <c r="AA62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB62">
-        <v>0.19056670000000001</v>
+        <v>0.18609999999999999</v>
       </c>
       <c r="AC62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD62">
         <v>1</v>
       </c>
       <c r="AE62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B63">
         <v>1242</v>
@@ -6957,10 +7050,10 @@
         <v>4</v>
       </c>
       <c r="E63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" t="s">
         <v>34</v>
-      </c>
-      <c r="F63" t="s">
-        <v>35</v>
       </c>
       <c r="G63">
         <v>60.01</v>
@@ -6969,7 +7062,7 @@
         <v>7</v>
       </c>
       <c r="I63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -6981,13 +7074,13 @@
         <v>-562284736</v>
       </c>
       <c r="M63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P63" s="1">
         <v>44358</v>
@@ -6999,13 +7092,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T63">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U63">
-        <v>1.51</v>
+        <v>1.87</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -7014,36 +7107,36 @@
         <v>1</v>
       </c>
       <c r="X63">
-        <v>925</v>
+        <v>678</v>
       </c>
       <c r="Y63">
         <v>88</v>
       </c>
       <c r="Z63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AA63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB63">
-        <v>0.18609999999999999</v>
+        <v>0.19056670000000001</v>
       </c>
       <c r="AC63">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD63">
         <v>1</v>
       </c>
       <c r="AE63">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B64">
         <v>1242</v>
@@ -7055,10 +7148,10 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" t="s">
         <v>34</v>
-      </c>
-      <c r="F64" t="s">
-        <v>35</v>
       </c>
       <c r="G64">
         <v>60.01</v>
@@ -7067,7 +7160,7 @@
         <v>7</v>
       </c>
       <c r="I64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -7079,13 +7172,13 @@
         <v>-562284736</v>
       </c>
       <c r="M64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P64" s="1">
         <v>44358</v>
@@ -7097,51 +7190,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S64" t="s">
+        <v>38</v>
+      </c>
+      <c r="T64">
+        <v>63</v>
+      </c>
+      <c r="U64">
+        <v>4.21</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>770</v>
+      </c>
+      <c r="Y64">
+        <v>50</v>
+      </c>
+      <c r="Z64" t="s">
         <v>39</v>
       </c>
-      <c r="T64">
-        <v>62</v>
-      </c>
-      <c r="U64">
-        <v>1.87</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>1</v>
-      </c>
-      <c r="X64">
-        <v>678</v>
-      </c>
-      <c r="Y64">
-        <v>88</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>40</v>
-      </c>
       <c r="AA64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB64">
-        <v>0.19056670000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AC64">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD64">
         <v>1</v>
       </c>
       <c r="AE64">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B65">
         <v>1242</v>
@@ -7153,10 +7246,10 @@
         <v>4</v>
       </c>
       <c r="E65" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" t="s">
         <v>34</v>
-      </c>
-      <c r="F65" t="s">
-        <v>35</v>
       </c>
       <c r="G65">
         <v>60.01</v>
@@ -7165,7 +7258,7 @@
         <v>7</v>
       </c>
       <c r="I65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -7177,13 +7270,13 @@
         <v>-562284736</v>
       </c>
       <c r="M65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P65" s="1">
         <v>44358</v>
@@ -7195,13 +7288,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T65">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U65">
-        <v>4.21</v>
+        <v>1.33</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -7210,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="X65">
-        <v>770</v>
+        <v>873</v>
       </c>
       <c r="Y65">
         <v>50</v>
@@ -7219,27 +7312,27 @@
         <v>40</v>
       </c>
       <c r="AA65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB65">
-        <v>0.2</v>
+        <v>0.185</v>
       </c>
       <c r="AC65">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD65">
         <v>1</v>
       </c>
       <c r="AE65">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B66">
         <v>1242</v>
@@ -7251,10 +7344,10 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" t="s">
         <v>34</v>
-      </c>
-      <c r="F66" t="s">
-        <v>35</v>
       </c>
       <c r="G66">
         <v>60.01</v>
@@ -7263,7 +7356,7 @@
         <v>7</v>
       </c>
       <c r="I66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -7275,13 +7368,13 @@
         <v>-562284736</v>
       </c>
       <c r="M66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P66" s="1">
         <v>44358</v>
@@ -7293,13 +7386,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T66">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U66">
-        <v>1.33</v>
+        <v>1.87</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -7308,36 +7401,36 @@
         <v>1</v>
       </c>
       <c r="X66">
-        <v>873</v>
+        <v>757</v>
       </c>
       <c r="Y66">
         <v>50</v>
       </c>
       <c r="Z66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB66">
-        <v>0.185</v>
+        <v>0.19556670000000001</v>
       </c>
       <c r="AC66">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD66">
         <v>1</v>
       </c>
       <c r="AE66">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B67">
         <v>1242</v>
@@ -7349,10 +7442,10 @@
         <v>4</v>
       </c>
       <c r="E67" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" t="s">
         <v>34</v>
-      </c>
-      <c r="F67" t="s">
-        <v>35</v>
       </c>
       <c r="G67">
         <v>60.01</v>
@@ -7361,7 +7454,7 @@
         <v>7</v>
       </c>
       <c r="I67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -7373,13 +7466,13 @@
         <v>-562284736</v>
       </c>
       <c r="M67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P67" s="1">
         <v>44358</v>
@@ -7391,13 +7484,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U67">
-        <v>1.87</v>
+        <v>1.51</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -7406,36 +7499,36 @@
         <v>1</v>
       </c>
       <c r="X67">
-        <v>757</v>
+        <v>697</v>
       </c>
       <c r="Y67">
         <v>50</v>
       </c>
       <c r="Z67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB67">
-        <v>0.19556670000000001</v>
+        <v>0.1966667</v>
       </c>
       <c r="AC67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD67">
         <v>1</v>
       </c>
       <c r="AE67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B68">
         <v>1242</v>
@@ -7447,10 +7540,10 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" t="s">
         <v>34</v>
-      </c>
-      <c r="F68" t="s">
-        <v>35</v>
       </c>
       <c r="G68">
         <v>60.01</v>
@@ -7459,7 +7552,7 @@
         <v>7</v>
       </c>
       <c r="I68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -7471,13 +7564,13 @@
         <v>-562284736</v>
       </c>
       <c r="M68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P68" s="1">
         <v>44358</v>
@@ -7489,13 +7582,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U68">
-        <v>1.51</v>
+        <v>3.13</v>
       </c>
       <c r="V68">
         <v>0</v>
@@ -7504,36 +7597,36 @@
         <v>1</v>
       </c>
       <c r="X68">
-        <v>697</v>
+        <v>790</v>
       </c>
       <c r="Y68">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="Z68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB68">
-        <v>0.1966667</v>
+        <v>0.1916667</v>
       </c>
       <c r="AC68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD68">
         <v>1</v>
       </c>
       <c r="AE68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B69">
         <v>1242</v>
@@ -7545,10 +7638,10 @@
         <v>4</v>
       </c>
       <c r="E69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" t="s">
         <v>34</v>
-      </c>
-      <c r="F69" t="s">
-        <v>35</v>
       </c>
       <c r="G69">
         <v>60.01</v>
@@ -7557,7 +7650,7 @@
         <v>7</v>
       </c>
       <c r="I69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -7569,13 +7662,13 @@
         <v>-562284736</v>
       </c>
       <c r="M69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P69" s="1">
         <v>44358</v>
@@ -7587,10 +7680,10 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U69">
         <v>3.13</v>
@@ -7602,36 +7695,36 @@
         <v>1</v>
       </c>
       <c r="X69">
-        <v>790</v>
+        <v>957</v>
       </c>
       <c r="Y69">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="Z69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AA69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB69">
-        <v>0.1916667</v>
+        <v>0.2022333</v>
       </c>
       <c r="AC69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD69">
         <v>1</v>
       </c>
       <c r="AE69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70">
         <v>1242</v>
@@ -7643,10 +7736,10 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" t="s">
         <v>34</v>
-      </c>
-      <c r="F70" t="s">
-        <v>35</v>
       </c>
       <c r="G70">
         <v>60.01</v>
@@ -7655,7 +7748,7 @@
         <v>7</v>
       </c>
       <c r="I70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -7667,13 +7760,13 @@
         <v>-562284736</v>
       </c>
       <c r="M70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P70" s="1">
         <v>44358</v>
@@ -7685,13 +7778,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U70">
-        <v>3.13</v>
+        <v>3.85</v>
       </c>
       <c r="V70">
         <v>0</v>
@@ -7700,36 +7793,36 @@
         <v>1</v>
       </c>
       <c r="X70">
-        <v>957</v>
+        <v>993</v>
       </c>
       <c r="Y70">
         <v>12</v>
       </c>
       <c r="Z70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB70">
-        <v>0.2022333</v>
+        <v>0.19833329999999999</v>
       </c>
       <c r="AC70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD70">
         <v>1</v>
       </c>
       <c r="AE70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B71">
         <v>1242</v>
@@ -7741,10 +7834,10 @@
         <v>4</v>
       </c>
       <c r="E71" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" t="s">
         <v>34</v>
-      </c>
-      <c r="F71" t="s">
-        <v>35</v>
       </c>
       <c r="G71">
         <v>60.01</v>
@@ -7753,7 +7846,7 @@
         <v>7</v>
       </c>
       <c r="I71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -7765,13 +7858,13 @@
         <v>-562284736</v>
       </c>
       <c r="M71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P71" s="1">
         <v>44358</v>
@@ -7783,13 +7876,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T71">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U71">
-        <v>3.85</v>
+        <v>2.59</v>
       </c>
       <c r="V71">
         <v>0</v>
@@ -7798,36 +7891,36 @@
         <v>1</v>
       </c>
       <c r="X71">
-        <v>993</v>
+        <v>1248</v>
       </c>
       <c r="Y71">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="Z71" t="s">
         <v>40</v>
       </c>
       <c r="AA71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB71">
-        <v>0.19833329999999999</v>
+        <v>0.19056670000000001</v>
       </c>
       <c r="AC71">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD71">
         <v>1</v>
       </c>
       <c r="AE71">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B72">
         <v>1242</v>
@@ -7839,10 +7932,10 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" t="s">
         <v>34</v>
-      </c>
-      <c r="F72" t="s">
-        <v>35</v>
       </c>
       <c r="G72">
         <v>60.01</v>
@@ -7851,7 +7944,7 @@
         <v>7</v>
       </c>
       <c r="I72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -7863,13 +7956,13 @@
         <v>-562284736</v>
       </c>
       <c r="M72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P72" s="1">
         <v>44358</v>
@@ -7881,51 +7974,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S72" t="s">
+        <v>38</v>
+      </c>
+      <c r="T72">
+        <v>71</v>
+      </c>
+      <c r="U72">
+        <v>4.21</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>1</v>
+      </c>
+      <c r="X72">
+        <v>1118</v>
+      </c>
+      <c r="Y72">
+        <v>12</v>
+      </c>
+      <c r="Z72" t="s">
         <v>39</v>
       </c>
-      <c r="T72">
-        <v>70</v>
-      </c>
-      <c r="U72">
-        <v>2.59</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>1</v>
-      </c>
-      <c r="X72">
-        <v>1248</v>
-      </c>
-      <c r="Y72">
-        <v>88</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>41</v>
-      </c>
       <c r="AA72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB72">
-        <v>0.19056670000000001</v>
+        <v>0.19113330000000001</v>
       </c>
       <c r="AC72">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD72">
         <v>1</v>
       </c>
       <c r="AE72">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B73">
         <v>1242</v>
@@ -7937,10 +8030,10 @@
         <v>4</v>
       </c>
       <c r="E73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" t="s">
         <v>34</v>
-      </c>
-      <c r="F73" t="s">
-        <v>35</v>
       </c>
       <c r="G73">
         <v>60.01</v>
@@ -7949,7 +8042,7 @@
         <v>7</v>
       </c>
       <c r="I73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -7961,13 +8054,13 @@
         <v>-562284736</v>
       </c>
       <c r="M73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P73" s="1">
         <v>44358</v>
@@ -7979,13 +8072,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U73">
-        <v>4.21</v>
+        <v>2.95</v>
       </c>
       <c r="V73">
         <v>0</v>
@@ -7994,36 +8087,36 @@
         <v>1</v>
       </c>
       <c r="X73">
-        <v>1118</v>
+        <v>785</v>
       </c>
       <c r="Y73">
         <v>12</v>
       </c>
       <c r="Z73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB73">
-        <v>0.19113330000000001</v>
+        <v>0.20056669999999999</v>
       </c>
       <c r="AC73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD73">
         <v>1</v>
       </c>
       <c r="AE73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B74">
         <v>1242</v>
@@ -8035,10 +8128,10 @@
         <v>4</v>
       </c>
       <c r="E74" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" t="s">
         <v>34</v>
-      </c>
-      <c r="F74" t="s">
-        <v>35</v>
       </c>
       <c r="G74">
         <v>60.01</v>
@@ -8047,7 +8140,7 @@
         <v>7</v>
       </c>
       <c r="I74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -8059,13 +8152,13 @@
         <v>-562284736</v>
       </c>
       <c r="M74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P74" s="1">
         <v>44358</v>
@@ -8077,13 +8170,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U74">
-        <v>2.95</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="V74">
         <v>0</v>
@@ -8092,36 +8185,36 @@
         <v>1</v>
       </c>
       <c r="X74">
-        <v>785</v>
+        <v>1206</v>
       </c>
       <c r="Y74">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="Z74" t="s">
         <v>40</v>
       </c>
       <c r="AA74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB74">
-        <v>0.20056669999999999</v>
+        <v>0.19833329999999999</v>
       </c>
       <c r="AC74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD74">
         <v>1</v>
       </c>
       <c r="AE74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B75">
         <v>1242</v>
@@ -8133,10 +8226,10 @@
         <v>4</v>
       </c>
       <c r="E75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" t="s">
         <v>34</v>
-      </c>
-      <c r="F75" t="s">
-        <v>35</v>
       </c>
       <c r="G75">
         <v>60.01</v>
@@ -8145,7 +8238,7 @@
         <v>7</v>
       </c>
       <c r="I75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -8157,13 +8250,13 @@
         <v>-562284736</v>
       </c>
       <c r="M75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P75" s="1">
         <v>44358</v>
@@ -8175,51 +8268,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S75" t="s">
+        <v>38</v>
+      </c>
+      <c r="T75">
+        <v>74</v>
+      </c>
+      <c r="U75">
+        <v>2.77</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>1</v>
+      </c>
+      <c r="X75">
+        <v>933</v>
+      </c>
+      <c r="Y75">
+        <v>12</v>
+      </c>
+      <c r="Z75" t="s">
         <v>39</v>
       </c>
-      <c r="T75">
-        <v>73</v>
-      </c>
-      <c r="U75">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>1</v>
-      </c>
-      <c r="X75">
-        <v>1206</v>
-      </c>
-      <c r="Y75">
-        <v>88</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>41</v>
-      </c>
       <c r="AA75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB75">
-        <v>0.19833329999999999</v>
+        <v>0.2022333</v>
       </c>
       <c r="AC75">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD75">
         <v>1</v>
       </c>
       <c r="AE75">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B76">
         <v>1242</v>
@@ -8231,10 +8324,10 @@
         <v>4</v>
       </c>
       <c r="E76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" t="s">
         <v>34</v>
-      </c>
-      <c r="F76" t="s">
-        <v>35</v>
       </c>
       <c r="G76">
         <v>60.01</v>
@@ -8243,7 +8336,7 @@
         <v>7</v>
       </c>
       <c r="I76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -8255,13 +8348,13 @@
         <v>-562284736</v>
       </c>
       <c r="M76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P76" s="1">
         <v>44358</v>
@@ -8273,51 +8366,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S76" t="s">
+        <v>38</v>
+      </c>
+      <c r="T76">
+        <v>75</v>
+      </c>
+      <c r="U76">
+        <v>3.49</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>1</v>
+      </c>
+      <c r="X76">
+        <v>922</v>
+      </c>
+      <c r="Y76">
+        <v>50</v>
+      </c>
+      <c r="Z76" t="s">
         <v>39</v>
       </c>
-      <c r="T76">
-        <v>74</v>
-      </c>
-      <c r="U76">
-        <v>2.77</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>1</v>
-      </c>
-      <c r="X76">
-        <v>933</v>
-      </c>
-      <c r="Y76">
-        <v>12</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>40</v>
-      </c>
       <c r="AA76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB76">
-        <v>0.2022333</v>
+        <v>0.2155667</v>
       </c>
       <c r="AC76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD76">
         <v>1</v>
       </c>
       <c r="AE76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B77">
         <v>1242</v>
@@ -8329,10 +8422,10 @@
         <v>4</v>
       </c>
       <c r="E77" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" t="s">
         <v>34</v>
-      </c>
-      <c r="F77" t="s">
-        <v>35</v>
       </c>
       <c r="G77">
         <v>60.01</v>
@@ -8341,7 +8434,7 @@
         <v>7</v>
       </c>
       <c r="I77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -8353,13 +8446,13 @@
         <v>-562284736</v>
       </c>
       <c r="M77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P77" s="1">
         <v>44358</v>
@@ -8371,13 +8464,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U77">
-        <v>3.49</v>
+        <v>1.87</v>
       </c>
       <c r="V77">
         <v>0</v>
@@ -8386,36 +8479,36 @@
         <v>1</v>
       </c>
       <c r="X77">
-        <v>922</v>
+        <v>848</v>
       </c>
       <c r="Y77">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="Z77" t="s">
         <v>40</v>
       </c>
       <c r="AA77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB77">
-        <v>0.2155667</v>
+        <v>0.19776669999999999</v>
       </c>
       <c r="AC77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD77">
         <v>1</v>
       </c>
       <c r="AE77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B78">
         <v>1242</v>
@@ -8427,10 +8520,10 @@
         <v>4</v>
       </c>
       <c r="E78" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" t="s">
         <v>34</v>
-      </c>
-      <c r="F78" t="s">
-        <v>35</v>
       </c>
       <c r="G78">
         <v>60.01</v>
@@ -8439,7 +8532,7 @@
         <v>7</v>
       </c>
       <c r="I78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -8451,13 +8544,13 @@
         <v>-562284736</v>
       </c>
       <c r="M78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P78" s="1">
         <v>44358</v>
@@ -8469,13 +8562,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U78">
-        <v>1.87</v>
+        <v>2.95</v>
       </c>
       <c r="V78">
         <v>0</v>
@@ -8484,36 +8577,36 @@
         <v>1</v>
       </c>
       <c r="X78">
-        <v>848</v>
+        <v>1229</v>
       </c>
       <c r="Y78">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="Z78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB78">
-        <v>0.19776669999999999</v>
+        <v>0.185</v>
       </c>
       <c r="AC78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD78">
         <v>1</v>
       </c>
       <c r="AE78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B79">
         <v>1242</v>
@@ -8525,10 +8618,10 @@
         <v>4</v>
       </c>
       <c r="E79" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79" t="s">
         <v>34</v>
-      </c>
-      <c r="F79" t="s">
-        <v>35</v>
       </c>
       <c r="G79">
         <v>60.01</v>
@@ -8537,7 +8630,7 @@
         <v>7</v>
       </c>
       <c r="I79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -8549,13 +8642,13 @@
         <v>-562284736</v>
       </c>
       <c r="M79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P79" s="1">
         <v>44358</v>
@@ -8567,13 +8660,13 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U79">
-        <v>2.95</v>
+        <v>3.13</v>
       </c>
       <c r="V79">
         <v>0</v>
@@ -8582,36 +8675,36 @@
         <v>1</v>
       </c>
       <c r="X79">
-        <v>1229</v>
+        <v>1043</v>
       </c>
       <c r="Y79">
         <v>50</v>
       </c>
       <c r="Z79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AA79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB79">
-        <v>0.185</v>
+        <v>0.19613330000000001</v>
       </c>
       <c r="AC79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD79">
         <v>1</v>
       </c>
       <c r="AE79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B80">
         <v>1242</v>
@@ -8623,10 +8716,10 @@
         <v>4</v>
       </c>
       <c r="E80" t="s">
+        <v>33</v>
+      </c>
+      <c r="F80" t="s">
         <v>34</v>
-      </c>
-      <c r="F80" t="s">
-        <v>35</v>
       </c>
       <c r="G80">
         <v>60.01</v>
@@ -8635,7 +8728,7 @@
         <v>7</v>
       </c>
       <c r="I80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -8647,13 +8740,13 @@
         <v>-562284736</v>
       </c>
       <c r="M80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P80" s="1">
         <v>44358</v>
@@ -8665,51 +8758,51 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U80">
-        <v>3.13</v>
+        <v>3.67</v>
       </c>
       <c r="V80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W80">
         <v>1</v>
       </c>
       <c r="X80">
-        <v>1043</v>
+        <v>3378</v>
       </c>
       <c r="Y80">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="Z80" t="s">
         <v>40</v>
       </c>
       <c r="AA80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB80">
-        <v>0.19613330000000001</v>
+        <v>0.20480999999999999</v>
       </c>
       <c r="AC80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD80">
         <v>1</v>
       </c>
       <c r="AE80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF80">
-        <v>0</v>
+        <v>3.67</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B81">
         <v>1242</v>
@@ -8721,10 +8814,10 @@
         <v>4</v>
       </c>
       <c r="E81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" t="s">
         <v>34</v>
-      </c>
-      <c r="F81" t="s">
-        <v>35</v>
       </c>
       <c r="G81">
         <v>60.01</v>
@@ -8733,7 +8826,7 @@
         <v>7</v>
       </c>
       <c r="I81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -8745,13 +8838,13 @@
         <v>-562284736</v>
       </c>
       <c r="M81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P81" s="1">
         <v>44358</v>
@@ -8763,143 +8856,45 @@
         <v>0.44987268518518514</v>
       </c>
       <c r="S81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U81">
-        <v>3.67</v>
+        <v>1.69</v>
       </c>
       <c r="V81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W81">
         <v>1</v>
       </c>
       <c r="X81">
-        <v>3378</v>
+        <v>935</v>
       </c>
       <c r="Y81">
         <v>88</v>
       </c>
       <c r="Z81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB81">
-        <v>0.20480999999999999</v>
+        <v>0.18890000000000001</v>
       </c>
       <c r="AC81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD81">
         <v>1</v>
       </c>
       <c r="AE81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF81">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>33</v>
-      </c>
-      <c r="B82">
-        <v>1242</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>4</v>
-      </c>
-      <c r="E82" t="s">
-        <v>34</v>
-      </c>
-      <c r="F82" t="s">
-        <v>35</v>
-      </c>
-      <c r="G82">
-        <v>60.01</v>
-      </c>
-      <c r="H82">
-        <v>7</v>
-      </c>
-      <c r="I82" t="s">
-        <v>36</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82">
-        <v>9</v>
-      </c>
-      <c r="L82">
-        <v>-562284736</v>
-      </c>
-      <c r="M82" t="s">
-        <v>37</v>
-      </c>
-      <c r="N82" t="s">
-        <v>38</v>
-      </c>
-      <c r="O82" t="s">
-        <v>38</v>
-      </c>
-      <c r="P82" s="1">
-        <v>44358</v>
-      </c>
-      <c r="Q82" s="2">
-        <v>44358.616539351853</v>
-      </c>
-      <c r="R82" s="3">
-        <v>0.44987268518518514</v>
-      </c>
-      <c r="S82" t="s">
-        <v>39</v>
-      </c>
-      <c r="T82">
-        <v>80</v>
-      </c>
-      <c r="U82">
-        <v>1.69</v>
-      </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>1</v>
-      </c>
-      <c r="X82">
-        <v>935</v>
-      </c>
-      <c r="Y82">
-        <v>88</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB82">
-        <v>0.18890000000000001</v>
-      </c>
-      <c r="AC82">
-        <v>80</v>
-      </c>
-      <c r="AD82">
-        <v>1</v>
-      </c>
-      <c r="AE82">
-        <v>80</v>
-      </c>
-      <c r="AF82">
         <v>1</v>
       </c>
     </row>
